--- a/template/mhs_template.xlsx
+++ b/template/mhs_template.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wsclient-new\template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="156" windowWidth="20052" windowHeight="7932" tabRatio="523" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Mahasiswa" sheetId="3" r:id="rId1"/>
     <sheet name="Mahasiswa Lulus-DO" sheetId="6" r:id="rId2"/>
     <sheet name="Nilai Pindahan" sheetId="5" r:id="rId3"/>
     <sheet name="Petunjuk Pengisian" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="177">
   <si>
     <t>Nama Mahasiswa</t>
   </si>
@@ -404,16 +410,160 @@
   </si>
   <si>
     <t>Tempat Lahir Mahasiswa</t>
+  </si>
+  <si>
+    <t>Status Awal Masuk/Jenis Pendaftaran</t>
+  </si>
+  <si>
+    <t>Terima KPS</t>
+  </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>NIK</t>
+  </si>
+  <si>
+    <t>Jalan</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>Desa/Kelurahan</t>
+  </si>
+  <si>
+    <t>Nama Dusun</t>
+  </si>
+  <si>
+    <t>Kode pos</t>
+  </si>
+  <si>
+    <t>Jenis Tempat Tinggal</t>
+  </si>
+  <si>
+    <t>Jenis Transfortasi</t>
+  </si>
+  <si>
+    <t>Telepon Rumah</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Telepon Seluler</t>
+  </si>
+  <si>
+    <t>Nomor KPS</t>
+  </si>
+  <si>
+    <t>Stat PD</t>
+  </si>
+  <si>
+    <t>Nama Ayah</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir Ayah</t>
+  </si>
+  <si>
+    <t>Jenjang Pendidikan Ayah</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ayah</t>
+  </si>
+  <si>
+    <t>Penghasilan Ayah</t>
+  </si>
+  <si>
+    <t>Kebutuahn Khusus Ayah</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir Ibu</t>
+  </si>
+  <si>
+    <t>Jenjang Pendidikan Ibu</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ibu</t>
+  </si>
+  <si>
+    <t>Penghasilan Ibu</t>
+  </si>
+  <si>
+    <t>Kebutuahan Khusus Ibu</t>
+  </si>
+  <si>
+    <t>Nama Wali</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir Wali</t>
+  </si>
+  <si>
+    <t>Jenjang Pendidikan Wali</t>
+  </si>
+  <si>
+    <t>Pekerjaan Wali</t>
+  </si>
+  <si>
+    <t>Penghasilan Wali</t>
+  </si>
+  <si>
+    <t>Kewarganegaraan</t>
+  </si>
+  <si>
+    <t>Tabel Mahasiswa</t>
+  </si>
+  <si>
+    <t>Id Agama</t>
+  </si>
+  <si>
+    <t>GetRecordset:wilayah</t>
+  </si>
+  <si>
+    <t>GetRecordset:jenis_tinggal</t>
+  </si>
+  <si>
+    <t>GetRecordset:alat_transport</t>
+  </si>
+  <si>
+    <t>0: Bukan penerima KPS, 1: Penerima KPS</t>
+  </si>
+  <si>
+    <t>A: , C: , D: , L: , P: , K: , N: , G: , X:</t>
+  </si>
+  <si>
+    <t>GetRecordset:jenjang_pendidikan</t>
+  </si>
+  <si>
+    <t>GetRecordset:pekerjaan</t>
+  </si>
+  <si>
+    <t>GetRecordset:penghasilan</t>
+  </si>
+  <si>
+    <t>L: Laki-laki, P: Perempuan, *: Belum ada informasi</t>
+  </si>
+  <si>
+    <t>dari sistem</t>
+  </si>
+  <si>
+    <t> GetRecordset:jenis_pendaftaran</t>
+  </si>
+  <si>
+    <t>GetRecordset:semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,13 +701,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -567,11 +710,51 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -769,8 +952,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1054,6 +1249,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1100,50 +1304,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,171 +1330,223 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="23" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="24" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="19" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="22" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="23" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="24" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="15" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="20" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="20" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1375,6 +1595,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1421,7 +1649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,9 +1681,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1487,6 +1716,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1662,108 +1892,272 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF92D050"/>
+    <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="AI1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="16" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="16" customWidth="1"/>
-    <col min="9" max="12" width="22.85546875" style="16" customWidth="1"/>
-    <col min="13" max="15" width="19.85546875" style="16" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="16" customWidth="1"/>
-    <col min="17" max="17" width="42.85546875" style="16" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" style="16" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="4.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.77734375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="13.5546875" style="4" customWidth="1"/>
+    <col min="26" max="26" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5546875" style="4" customWidth="1"/>
+    <col min="31" max="31" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21" style="4" customWidth="1"/>
+    <col min="39" max="39" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14" style="4" customWidth="1"/>
+    <col min="45" max="45" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="16.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="33.21875" style="4" customWidth="1"/>
+    <col min="48" max="48" width="9.77734375" style="4" customWidth="1"/>
+    <col min="49" max="49" width="7.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12" style="12" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.88671875" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="33" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:50" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="P1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="AF1" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="AR1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="AS1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="AT1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="20" t="s">
+      <c r="AU1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="AW1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="AX1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,89 +2166,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="16" customWidth="1"/>
-    <col min="7" max="10" width="22.85546875" style="16" customWidth="1"/>
-    <col min="11" max="13" width="19.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="16" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="M1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1863,91 +2262,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="16" customWidth="1"/>
-    <col min="8" max="11" width="22.85546875" style="16" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="18" style="1" customWidth="1"/>
-    <col min="14" max="14" width="41.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="7.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1956,1342 +2358,1342 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="55.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="2.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="15"/>
+    <col min="7" max="7" width="55.5546875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="25" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A4" s="8">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="78"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A5" s="8">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A6" s="8">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A7" s="8">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A8" s="8">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="46" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A10" s="36"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="8" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="8" t="s">
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="8" t="s">
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A13" s="8">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <v>6</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="44" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="26">
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="26">
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="21">
         <v>2</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="26">
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+    </row>
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="21">
         <v>3</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A18" s="40"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="26">
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+    </row>
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="21">
         <v>4</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="26">
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="21">
         <v>5</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="26">
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="21">
         <v>6</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="26">
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="21">
         <v>99</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A22" s="8">
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <v>7</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A23" s="8">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
         <v>8</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A24" s="8">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
         <v>9</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A25" s="8">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
         <v>10</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A26" s="11">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47">
         <v>11</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A27" s="11">
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47">
         <v>12</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A28" s="11">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
         <v>13</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="44" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="77"/>
-      <c r="G29" s="50"/>
-    </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="52"/>
+    </row>
+    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="53"/>
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="51"/>
-    </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A32" s="48"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="53"/>
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="51"/>
-    </row>
-    <row r="33" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A33" s="48"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="53"/>
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="51"/>
-    </row>
-    <row r="34" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A34" s="48"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="53"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="51"/>
-    </row>
-    <row r="35" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A35" s="48"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="51"/>
-    </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A36" s="48"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="51"/>
-    </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="8" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="52"/>
-    </row>
-    <row r="38" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A38" s="11">
+      <c r="F37" s="25"/>
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
         <v>14</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A39" s="56"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="44" t="s">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A40" s="57"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="60"/>
       <c r="B40" s="54"/>
       <c r="C40" s="54"/>
-      <c r="D40" s="8">
+      <c r="D40" s="21">
         <v>1</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="8">
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+    </row>
+    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="21">
         <v>2</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A42" s="11">
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="47">
         <v>15</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A43" s="11">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="47">
         <v>16</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A44" s="11">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="47">
         <v>17</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="27" customHeight="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="25" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="47" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16"/>
+      <c r="B47" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A48" s="5" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="75"/>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A49" s="8">
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
+    </row>
+    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
         <v>1</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A50" s="8">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
         <v>2</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A51" s="8">
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
         <v>3</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A52" s="8">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
         <v>4</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A53" s="8">
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
         <v>5</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A54" s="8">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
         <v>6</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A55" s="8">
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
         <v>7</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A56" s="8">
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
         <v>8</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A57" s="8">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <v>9</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14"/>
-    </row>
-    <row r="58" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A58" s="11">
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="47">
         <v>10</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A59" s="11">
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="47">
         <v>11</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="11">
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="47">
         <v>11</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
-      <c r="G60" s="72"/>
-    </row>
-    <row r="61" spans="1:7" customFormat="1" ht="21" customHeight="1">
-      <c r="A61" s="11">
+      <c r="D60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="64"/>
+    </row>
+    <row r="61" spans="1:7" s="65" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="47">
         <v>12</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
-      <c r="G61" s="72"/>
-    </row>
-    <row r="64" spans="1:7" ht="27" customHeight="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="25" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="64"/>
+    </row>
+    <row r="64" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A65" s="5" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="75"/>
-    </row>
-    <row r="66" spans="1:7" ht="21" customHeight="1">
-      <c r="A66" s="8">
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+    </row>
+    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
         <v>1</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" ht="21" customHeight="1">
-      <c r="A67" s="8">
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
         <v>2</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" ht="21" customHeight="1">
-      <c r="A68" s="35">
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26">
         <v>3</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="27" t="s">
         <v>90</v>
       </c>
       <c r="C68" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="14"/>
-    </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
-      <c r="A69" s="35"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="64" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="30"/>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="26"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="14"/>
-    </row>
-    <row r="70" spans="1:7" ht="21" customHeight="1">
-      <c r="A70" s="36"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="65">
+      <c r="F69" s="29"/>
+      <c r="G69" s="30"/>
+    </row>
+    <row r="70" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31"/>
+      <c r="B70" s="70"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="71">
         <v>1</v>
       </c>
-      <c r="E70" s="63" t="s">
+      <c r="E70" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="29"/>
-    </row>
-    <row r="71" spans="1:7" ht="21" customHeight="1">
-      <c r="A71" s="36"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="65">
+      <c r="F70" s="33"/>
+      <c r="G70" s="34"/>
+    </row>
+    <row r="71" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="71">
         <v>2</v>
       </c>
-      <c r="E71" s="63" t="s">
+      <c r="E71" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="F71" s="28"/>
-      <c r="G71" s="29"/>
-    </row>
-    <row r="72" spans="1:7" ht="21" customHeight="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="65">
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+    </row>
+    <row r="72" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31"/>
+      <c r="B72" s="70"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="71">
         <v>3</v>
       </c>
-      <c r="E72" s="63" t="s">
+      <c r="E72" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73" spans="1:7" ht="21" customHeight="1">
-      <c r="A73" s="36"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="65">
+      <c r="F72" s="33"/>
+      <c r="G72" s="34"/>
+    </row>
+    <row r="73" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31"/>
+      <c r="B73" s="70"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="71">
         <v>4</v>
       </c>
-      <c r="E73" s="63" t="s">
+      <c r="E73" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="29"/>
-    </row>
-    <row r="74" spans="1:7" ht="21" customHeight="1">
-      <c r="A74" s="36"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="65">
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+    </row>
+    <row r="74" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31"/>
+      <c r="B74" s="70"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="71">
         <v>5</v>
       </c>
-      <c r="E74" s="63" t="s">
+      <c r="E74" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="28"/>
-      <c r="G74" s="29"/>
-    </row>
-    <row r="75" spans="1:7" ht="21" customHeight="1">
-      <c r="A75" s="57"/>
-      <c r="B75" s="61"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+    </row>
+    <row r="75" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="60"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="54"/>
-      <c r="D75" s="65">
+      <c r="D75" s="71">
         <v>6</v>
       </c>
-      <c r="E75" s="63" t="s">
+      <c r="E75" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F75" s="28"/>
-      <c r="G75" s="29"/>
-    </row>
-    <row r="76" spans="1:7" ht="21" customHeight="1">
-      <c r="A76" s="57"/>
-      <c r="B76" s="61"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="34"/>
+    </row>
+    <row r="76" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="60"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="54"/>
-      <c r="D76" s="65">
+      <c r="D76" s="71">
         <v>7</v>
       </c>
-      <c r="E76" s="63" t="s">
+      <c r="E76" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="29"/>
-    </row>
-    <row r="77" spans="1:7" ht="21" customHeight="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="51"/>
-      <c r="D77" s="65">
+      <c r="F76" s="33"/>
+      <c r="G76" s="34"/>
+    </row>
+    <row r="77" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="55"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="71">
         <v>8</v>
       </c>
-      <c r="E77" s="63" t="s">
+      <c r="E77" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="F77" s="28"/>
-      <c r="G77" s="29"/>
-    </row>
-    <row r="78" spans="1:7" ht="21" customHeight="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="65">
+      <c r="F77" s="33"/>
+      <c r="G77" s="34"/>
+    </row>
+    <row r="78" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="55"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="71">
         <v>9</v>
       </c>
-      <c r="E78" s="63" t="s">
+      <c r="E78" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="F78" s="28"/>
-      <c r="G78" s="29"/>
-    </row>
-    <row r="79" spans="1:7" ht="21" customHeight="1">
-      <c r="A79" s="52"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="67" t="s">
+      <c r="F78" s="33"/>
+      <c r="G78" s="34"/>
+    </row>
+    <row r="79" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F79" s="28"/>
-      <c r="G79" s="29"/>
-    </row>
-    <row r="80" spans="1:7" ht="21" customHeight="1">
-      <c r="A80" s="37">
+      <c r="F79" s="33"/>
+      <c r="G79" s="34"/>
+    </row>
+    <row r="80" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="35">
         <v>4</v>
       </c>
-      <c r="B80" s="68" t="s">
+      <c r="B80" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" ht="21" customHeight="1">
-      <c r="A81" s="8">
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="21">
         <v>5</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" ht="21" customHeight="1">
-      <c r="A82" s="8">
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="82" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
         <v>6</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" ht="21" customHeight="1">
-      <c r="A83" s="8">
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="21">
         <v>7</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" ht="21" customHeight="1">
-      <c r="A84" s="8">
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="25"/>
+    </row>
+    <row r="84" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
         <v>8</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" ht="21" customHeight="1">
-      <c r="A85" s="8">
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="21">
         <v>9</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C85" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" ht="21" customHeight="1">
-      <c r="A86" s="8">
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
         <v>10</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" ht="21" customHeight="1">
-      <c r="A87" s="8">
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
         <v>11</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C87" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" ht="21" customHeight="1">
-      <c r="A88" s="8">
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
         <v>12</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" ht="21" customHeight="1">
-      <c r="A89" s="35">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="89" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="26">
         <v>13</v>
       </c>
       <c r="B89" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="68" t="s">
+      <c r="C89" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="31"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="22"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="22"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-    </row>
-    <row r="99" spans="1:7">
-      <c r="A99" s="22"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="22"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="22"/>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="22"/>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="38"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3303,4 +3705,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>